--- a/Data/EC/NIT-8002242111.xlsx
+++ b/Data/EC/NIT-8002242111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43509509-F7BF-4755-8706-33C40B820CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{623BF5E9-DA95-4268-89E1-6D24109EEFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96B8D13C-3E99-4B24-92C8-AB4E14F861BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C80AC0B-C450-492B-8A4B-2309D203108B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,177 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047385294</t>
+  </si>
+  <si>
+    <t>ERLIN PATRICIA ORTEGA DIAZ</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>73007322</t>
   </si>
   <si>
     <t>BEDER ANTONIO PRIETO OSORIO</t>
   </si>
   <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
@@ -78,171 +243,6 @@
   </si>
   <si>
     <t>HUMBERTO ANTONIO VEGA ALCAZAR</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1047385294</t>
-  </si>
-  <si>
-    <t>ERLIN PATRICIA ORTEGA DIAZ</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -656,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F0993E-942C-13D9-EED2-295C099AF42D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788724D3-0AE6-2422-EF89-A4E65C35B069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440FE0E4-FAC2-417F-957D-60C2C4588D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8831C43-EF4F-43F2-AA7D-5688F83B8962}">
   <dimension ref="B2:J175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1185,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33180</v>
+        <v>21874</v>
       </c>
       <c r="G16" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1199,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1228,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1245,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1297,13 +1297,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1314,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1343,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1366,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1383,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1412,13 +1412,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1429,19 +1429,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1458,13 +1458,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1504,13 +1504,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1521,19 +1521,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1544,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1573,13 +1573,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1590,16 +1590,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>737717</v>
@@ -1619,13 +1619,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1636,16 +1636,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>737717</v>
@@ -1659,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1688,13 +1688,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1705,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1728,16 +1728,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>737717</v>
@@ -1751,16 +1751,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>737717</v>
@@ -1774,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>23580</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1803,13 +1803,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1820,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>23580</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1843,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
@@ -1872,13 +1872,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>33180</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1889,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
@@ -1912,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>23580</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1941,13 +1941,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>33180</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1964,13 +1964,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>33180</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1981,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>23580</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2004,13 +2004,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
@@ -2027,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
@@ -2050,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>23580</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2079,13 +2079,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>33180</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2096,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>29509</v>
@@ -2125,13 +2125,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>33180</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2142,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>23580</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2165,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>23580</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2194,13 +2194,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>33180</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>829500</v>
+        <v>737717</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2211,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>29509</v>
@@ -2234,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>23226</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2257,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F63" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2280,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F64" s="18">
         <v>33180</v>
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>33180</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2326,13 +2326,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F66" s="18">
         <v>33180</v>
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F67" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2372,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F68" s="18">
-        <v>29509</v>
+        <v>33180</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2395,13 +2395,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F69" s="18">
         <v>33180</v>
@@ -2418,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F70" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2441,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F71" s="18">
-        <v>29509</v>
+        <v>33180</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2464,13 +2464,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F72" s="18">
         <v>33180</v>
@@ -2487,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F73" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2510,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D74" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F74" s="18">
-        <v>29509</v>
+        <v>33180</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2533,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F75" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2556,13 +2556,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F76" s="18">
         <v>33180</v>
@@ -2579,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F77" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2602,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>33180</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2625,13 +2625,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F79" s="18">
         <v>33180</v>
@@ -2648,13 +2648,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F80" s="18">
         <v>33180</v>
@@ -2671,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F81" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2694,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F82" s="18">
-        <v>29509</v>
+        <v>33180</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2717,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F83" s="18">
-        <v>23580</v>
+        <v>33180</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2740,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F84" s="18">
-        <v>29509</v>
+        <v>33180</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2763,13 +2763,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F85" s="18">
         <v>33180</v>
@@ -2786,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2809,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2832,13 +2832,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F88" s="18">
         <v>33180</v>
@@ -2855,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2878,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2901,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
         <v>33180</v>
@@ -2924,13 +2924,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
         <v>33180</v>
@@ -2947,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2970,19 +2970,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2993,19 +2993,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3016,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3039,13 +3039,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F97" s="18">
         <v>33180</v>
@@ -3062,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3085,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3108,13 +3108,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F100" s="18">
         <v>33180</v>
@@ -3131,13 +3131,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F101" s="18">
         <v>33180</v>
@@ -3154,19 +3154,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3177,19 +3177,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3200,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3223,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3246,13 +3246,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F106" s="18">
         <v>33180</v>
@@ -3269,19 +3269,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3292,13 +3292,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
         <v>33180</v>
@@ -3315,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G109" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3338,19 +3338,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G110" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3361,13 +3361,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F111" s="18">
         <v>33180</v>
@@ -3384,19 +3384,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3407,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>829500</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3430,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F114" s="18">
         <v>33180</v>
@@ -3453,19 +3453,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>33180</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>829500</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3476,16 +3476,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3499,19 +3499,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F117" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3522,19 +3522,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3545,13 +3545,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3568,19 +3568,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F120" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3591,19 +3591,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3614,13 +3614,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3637,19 +3637,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3660,19 +3660,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F124" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3683,13 +3683,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3706,19 +3706,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F126" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3729,19 +3729,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D127" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F127" s="18">
         <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3752,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D128" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F128" s="18">
         <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3775,19 +3775,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F129" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3798,13 +3798,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3821,13 +3821,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -3844,19 +3844,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3867,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F133" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3890,13 +3890,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -3913,19 +3913,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3936,19 +3936,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F136" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3959,13 +3959,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -3982,19 +3982,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F138" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4005,19 +4005,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4028,19 +4028,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4051,13 +4051,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4074,19 +4074,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F142" s="18">
-        <v>33180</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4097,19 +4097,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4120,16 +4120,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4143,19 +4143,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F145" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G145" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4166,16 +4166,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G146" s="18">
         <v>781242</v>
@@ -4189,19 +4189,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G147" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4212,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F148" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G148" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4235,19 +4235,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F149" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G149" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4258,19 +4258,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G150" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4281,16 +4281,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G151" s="18">
         <v>781242</v>
@@ -4304,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G152" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4327,19 +4327,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F153" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G153" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4350,16 +4350,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4373,16 +4373,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4396,19 +4396,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F156" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G156" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4419,19 +4419,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G157" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4442,19 +4442,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G158" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4465,16 +4465,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4488,19 +4488,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F160" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G160" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4511,19 +4511,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F161" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G161" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4534,16 +4534,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G162" s="18">
         <v>781242</v>
@@ -4557,19 +4557,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G163" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4580,19 +4580,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G164" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4603,19 +4603,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F165" s="18">
-        <v>33180</v>
+        <v>23580</v>
       </c>
       <c r="G165" s="18">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4626,16 +4626,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>23580</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4649,19 +4649,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F167" s="18">
-        <v>21874</v>
+        <v>23580</v>
       </c>
       <c r="G167" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4672,16 +4672,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F168" s="18">
-        <v>21874</v>
+        <v>23580</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4695,19 +4695,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F169" s="24">
-        <v>23226</v>
+        <v>23580</v>
       </c>
       <c r="G169" s="24">
-        <v>829500</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
